--- a/code/excels/units/imba_units.xlsx
+++ b/code/excels/units/imba_units.xlsx
@@ -485,55 +485,55 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_beastmaster/beastmaster_boar_attack.vpcf</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
+  </si>
+  <si>
+    <t>npc_imba_dota_beastmaster_boar_2</t>
+  </si>
+  <si>
+    <t>npc_imba_dota_beastmaster_boar_3</t>
+  </si>
+  <si>
+    <t>npc_imba_dota_beastmaster_boar_4</t>
+  </si>
+  <si>
+    <t>npc_imba_dota_beastmaster_boar_5</t>
+  </si>
+  <si>
+    <t>npc_imba_dota_beastmaster_hawk_1</t>
+  </si>
+  <si>
+    <t>hawk</t>
+  </si>
+  <si>
+    <t>npc/units/imba/summon/npc_imba_dota_beastmaster_hawk</t>
+  </si>
+  <si>
+    <t>models/heroes/beastmaster/beastmaster_bird.vmdl</t>
+  </si>
+  <si>
+    <t>imba_beastmaster_hawk_invis</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_FLY</t>
+  </si>
+  <si>
     <t>DOTA_UNIT_CAP_NO_ATTACK</t>
   </si>
   <si>
     <t>450</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
-  </si>
-  <si>
-    <t>npc_imba_dota_beastmaster_boar_2</t>
-  </si>
-  <si>
-    <t>npc_imba_dota_beastmaster_boar_3</t>
-  </si>
-  <si>
-    <t>npc_imba_dota_beastmaster_boar_4</t>
-  </si>
-  <si>
-    <t>npc_imba_dota_beastmaster_boar_5</t>
-  </si>
-  <si>
-    <t>npc_imba_dota_beastmaster_hawk_1</t>
-  </si>
-  <si>
-    <t>hawk</t>
-  </si>
-  <si>
-    <t>npc/units/imba/summon/npc_imba_dota_beastmaster_hawk</t>
-  </si>
-  <si>
-    <t>models/heroes/beastmaster/beastmaster_bird.vmdl</t>
-  </si>
-  <si>
-    <t>imba_beastmaster_hawk_invis</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_FLY</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_beastmaster/beastmaster_boar_attack.vpcf</t>
   </si>
   <si>
     <t>npc_imba_dota_beastmaster_hawk_2</t>
@@ -2901,8 +2901,8 @@
   <sheetPr/>
   <dimension ref="A1:BX98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AY19" sqref="AY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3439,22 +3439,43 @@
       <c r="AQ3" t="s">
         <v>154</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0.5</v>
       </c>
       <c r="AX3" t="s">
         <v>157</v>
       </c>
+      <c r="AY3">
+        <v>600</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA3">
+        <v>1500</v>
+      </c>
       <c r="BL3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4">
         <v>111</v>
@@ -3516,22 +3537,43 @@
       <c r="AQ4" t="s">
         <v>154</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0.5</v>
       </c>
       <c r="AX4" t="s">
         <v>157</v>
       </c>
+      <c r="AY4">
+        <v>600</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA4">
+        <v>1500</v>
+      </c>
       <c r="BL4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B5">
         <v>111</v>
@@ -3593,22 +3635,43 @@
       <c r="AQ5" t="s">
         <v>154</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0.5</v>
       </c>
       <c r="AX5" t="s">
         <v>157</v>
       </c>
+      <c r="AY5">
+        <v>600</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA5">
+        <v>1500</v>
+      </c>
       <c r="BL5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6">
         <v>111</v>
@@ -3670,22 +3733,43 @@
       <c r="AQ6" t="s">
         <v>154</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0.5</v>
       </c>
       <c r="AX6" t="s">
         <v>157</v>
       </c>
+      <c r="AY6">
+        <v>600</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA6">
+        <v>1500</v>
+      </c>
       <c r="BL6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7">
         <v>111</v>
@@ -3747,22 +3831,43 @@
       <c r="AQ7" t="s">
         <v>154</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0.5</v>
       </c>
       <c r="AX7" t="s">
         <v>157</v>
       </c>
+      <c r="AY7">
+        <v>600</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA7">
+        <v>1500</v>
+      </c>
       <c r="BL7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8">
         <v>111</v>
@@ -3774,16 +3879,16 @@
         <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
         <v>143</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I8">
         <v>1.1</v>
@@ -3795,7 +3900,7 @@
         <v>147</v>
       </c>
       <c r="S8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>149</v>
@@ -3804,7 +3909,7 @@
         <v>150</v>
       </c>
       <c r="AJ8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK8">
         <v>0.6</v>
@@ -3824,38 +3929,17 @@
       <c r="AQ8" t="s">
         <v>154</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>0.5</v>
+      <c r="AS8" t="s">
+        <v>171</v>
       </c>
       <c r="AX8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY8">
-        <v>600</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BA8">
-        <v>1500</v>
-      </c>
       <c r="BL8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3872,16 +3956,16 @@
         <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
         <v>143</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I9">
         <v>1.1</v>
@@ -3893,7 +3977,7 @@
         <v>147</v>
       </c>
       <c r="S9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>149</v>
@@ -3902,7 +3986,7 @@
         <v>150</v>
       </c>
       <c r="AJ9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK9">
         <v>0.6</v>
@@ -3922,38 +4006,17 @@
       <c r="AQ9" t="s">
         <v>154</v>
       </c>
-      <c r="AS9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>20</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>20</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0.5</v>
+      <c r="AS9" t="s">
+        <v>171</v>
       </c>
       <c r="AX9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY9">
-        <v>600</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BA9">
-        <v>1500</v>
-      </c>
       <c r="BL9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3970,16 +4033,16 @@
         <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I10">
         <v>1.1</v>
@@ -3991,7 +4054,7 @@
         <v>147</v>
       </c>
       <c r="S10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>149</v>
@@ -4000,7 +4063,7 @@
         <v>150</v>
       </c>
       <c r="AJ10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK10">
         <v>0.6</v>
@@ -4020,38 +4083,17 @@
       <c r="AQ10" t="s">
         <v>154</v>
       </c>
-      <c r="AS10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>20</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>20</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>0.5</v>
+      <c r="AS10" t="s">
+        <v>171</v>
       </c>
       <c r="AX10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY10">
-        <v>600</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BA10">
-        <v>1500</v>
-      </c>
       <c r="BL10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -4068,16 +4110,16 @@
         <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
         <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I11">
         <v>1.1</v>
@@ -4089,7 +4131,7 @@
         <v>147</v>
       </c>
       <c r="S11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>149</v>
@@ -4098,7 +4140,7 @@
         <v>150</v>
       </c>
       <c r="AJ11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK11">
         <v>0.6</v>
@@ -4118,38 +4160,17 @@
       <c r="AQ11" t="s">
         <v>154</v>
       </c>
-      <c r="AS11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>20</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>20</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>0.5</v>
+      <c r="AS11" t="s">
+        <v>171</v>
       </c>
       <c r="AX11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY11">
-        <v>600</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BA11">
-        <v>1500</v>
-      </c>
       <c r="BL11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -4166,16 +4187,16 @@
         <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
         <v>143</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I12">
         <v>1.1</v>
@@ -4187,7 +4208,7 @@
         <v>147</v>
       </c>
       <c r="S12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>149</v>
@@ -4196,7 +4217,7 @@
         <v>150</v>
       </c>
       <c r="AJ12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK12">
         <v>0.6</v>
@@ -4216,38 +4237,17 @@
       <c r="AQ12" t="s">
         <v>154</v>
       </c>
-      <c r="AS12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>20</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>20</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>0.5</v>
+      <c r="AS12" t="s">
+        <v>171</v>
       </c>
       <c r="AX12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY12">
-        <v>600</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BA12">
-        <v>1500</v>
-      </c>
       <c r="BL12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4283,10 +4283,10 @@
         <v>182</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>149</v>
@@ -4319,7 +4319,7 @@
         <v>153</v>
       </c>
       <c r="AS13" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT13" t="s">
         <v>153</v>
@@ -4334,19 +4334,19 @@
         <v>185</v>
       </c>
       <c r="AX13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY13" t="s">
         <v>157</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>171</v>
       </c>
       <c r="BA13" t="s">
         <v>186</v>
       </c>
       <c r="BL13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4420,7 +4420,7 @@
         <v>155</v>
       </c>
       <c r="AS14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT14" t="s">
         <v>153</v>
@@ -4450,10 +4450,10 @@
         <v>200</v>
       </c>
       <c r="BL14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4527,7 +4527,7 @@
         <v>155</v>
       </c>
       <c r="AS15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT15" t="s">
         <v>153</v>
@@ -4557,10 +4557,10 @@
         <v>200</v>
       </c>
       <c r="BL15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:61">
@@ -4628,7 +4628,7 @@
         <v>153</v>
       </c>
       <c r="AS16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT16" t="s">
         <v>153</v>
@@ -4723,7 +4723,7 @@
         <v>153</v>
       </c>
       <c r="AS17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT17" t="s">
         <v>153</v>
@@ -4818,7 +4818,7 @@
         <v>153</v>
       </c>
       <c r="AS18" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT18" t="s">
         <v>153</v>
@@ -4913,7 +4913,7 @@
         <v>153</v>
       </c>
       <c r="AS19" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT19" t="s">
         <v>153</v>
@@ -5008,7 +5008,7 @@
         <v>153</v>
       </c>
       <c r="AS20" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT20" t="s">
         <v>153</v>
@@ -5103,7 +5103,7 @@
         <v>153</v>
       </c>
       <c r="AS21" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT21" t="s">
         <v>153</v>
@@ -5198,7 +5198,7 @@
         <v>153</v>
       </c>
       <c r="AS22" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT22" t="s">
         <v>153</v>
@@ -5293,7 +5293,7 @@
         <v>153</v>
       </c>
       <c r="AS23" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT23" t="s">
         <v>153</v>
@@ -5388,7 +5388,7 @@
         <v>153</v>
       </c>
       <c r="AS24" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT24" t="s">
         <v>153</v>
@@ -5483,7 +5483,7 @@
         <v>153</v>
       </c>
       <c r="AS25" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT25" t="s">
         <v>153</v>
@@ -5578,7 +5578,7 @@
         <v>153</v>
       </c>
       <c r="AS26" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT26" t="s">
         <v>153</v>
@@ -5673,7 +5673,7 @@
         <v>153</v>
       </c>
       <c r="AS27" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT27" t="s">
         <v>153</v>
@@ -5768,7 +5768,7 @@
         <v>153</v>
       </c>
       <c r="AS28" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT28" t="s">
         <v>153</v>
@@ -5863,7 +5863,7 @@
         <v>153</v>
       </c>
       <c r="AS29" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT29" t="s">
         <v>153</v>
@@ -5958,7 +5958,7 @@
         <v>153</v>
       </c>
       <c r="AS30" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT30" t="s">
         <v>153</v>
@@ -6053,7 +6053,7 @@
         <v>153</v>
       </c>
       <c r="AS31" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT31" t="s">
         <v>153</v>
@@ -6148,7 +6148,7 @@
         <v>153</v>
       </c>
       <c r="AS32" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT32" t="s">
         <v>153</v>
@@ -6243,7 +6243,7 @@
         <v>153</v>
       </c>
       <c r="AS33" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT33" t="s">
         <v>153</v>
@@ -6338,7 +6338,7 @@
         <v>153</v>
       </c>
       <c r="AS34" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT34" t="s">
         <v>153</v>
@@ -6433,7 +6433,7 @@
         <v>153</v>
       </c>
       <c r="AS35" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT35" t="s">
         <v>153</v>
@@ -6528,7 +6528,7 @@
         <v>153</v>
       </c>
       <c r="AS36" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT36" t="s">
         <v>153</v>
@@ -6623,7 +6623,7 @@
         <v>153</v>
       </c>
       <c r="AS37" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT37" t="s">
         <v>153</v>
@@ -6718,7 +6718,7 @@
         <v>153</v>
       </c>
       <c r="AS38" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT38" t="s">
         <v>153</v>
@@ -6813,7 +6813,7 @@
         <v>153</v>
       </c>
       <c r="AS39" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT39" t="s">
         <v>153</v>
@@ -6908,7 +6908,7 @@
         <v>153</v>
       </c>
       <c r="AS40" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT40" t="s">
         <v>153</v>
@@ -7003,7 +7003,7 @@
         <v>153</v>
       </c>
       <c r="AS41" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT41" t="s">
         <v>153</v>
@@ -7098,7 +7098,7 @@
         <v>153</v>
       </c>
       <c r="AS42" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT42" t="s">
         <v>153</v>
@@ -7193,7 +7193,7 @@
         <v>153</v>
       </c>
       <c r="AS43" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT43" t="s">
         <v>153</v>
@@ -7288,7 +7288,7 @@
         <v>153</v>
       </c>
       <c r="AS44" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT44" t="s">
         <v>153</v>
@@ -7389,7 +7389,7 @@
         <v>153</v>
       </c>
       <c r="AS45" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT45" t="s">
         <v>311</v>
@@ -7404,7 +7404,7 @@
         <v>185</v>
       </c>
       <c r="AX45" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AY45" t="s">
         <v>147</v>
@@ -7493,7 +7493,7 @@
         <v>153</v>
       </c>
       <c r="AS46" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT46" t="s">
         <v>312</v>
@@ -7508,7 +7508,7 @@
         <v>185</v>
       </c>
       <c r="AX46" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AY46" t="s">
         <v>147</v>
@@ -7597,7 +7597,7 @@
         <v>153</v>
       </c>
       <c r="AS47" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT47" t="s">
         <v>331</v>
@@ -7612,7 +7612,7 @@
         <v>185</v>
       </c>
       <c r="AX47" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AY47" t="s">
         <v>147</v>
@@ -7701,7 +7701,7 @@
         <v>153</v>
       </c>
       <c r="AS48" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT48" t="s">
         <v>339</v>
@@ -7716,7 +7716,7 @@
         <v>185</v>
       </c>
       <c r="AX48" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AY48" t="s">
         <v>147</v>
@@ -7802,7 +7802,7 @@
         <v>153</v>
       </c>
       <c r="AS49" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT49" t="s">
         <v>153</v>
@@ -7900,7 +7900,7 @@
         <v>153</v>
       </c>
       <c r="AS50" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT50" t="s">
         <v>153</v>
@@ -8001,7 +8001,7 @@
         <v>154</v>
       </c>
       <c r="AS51" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT51" t="s">
         <v>153</v>
@@ -8102,7 +8102,7 @@
         <v>154</v>
       </c>
       <c r="AS52" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT52" t="s">
         <v>153</v>
@@ -8203,7 +8203,7 @@
         <v>154</v>
       </c>
       <c r="AS53" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT53" t="s">
         <v>153</v>
@@ -8304,7 +8304,7 @@
         <v>154</v>
       </c>
       <c r="AS54" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT54" t="s">
         <v>153</v>
@@ -8405,7 +8405,7 @@
         <v>154</v>
       </c>
       <c r="AS55" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT55" t="s">
         <v>153</v>
@@ -8506,7 +8506,7 @@
         <v>154</v>
       </c>
       <c r="AS56" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT56" t="s">
         <v>153</v>
@@ -8607,7 +8607,7 @@
         <v>154</v>
       </c>
       <c r="AS57" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT57" t="s">
         <v>153</v>
@@ -8699,7 +8699,7 @@
         <v>153</v>
       </c>
       <c r="AS58" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT58" t="s">
         <v>153</v>
@@ -8791,7 +8791,7 @@
         <v>153</v>
       </c>
       <c r="AS59" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT59" t="s">
         <v>153</v>
@@ -8883,7 +8883,7 @@
         <v>153</v>
       </c>
       <c r="AS60" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT60" t="s">
         <v>153</v>
@@ -8978,7 +8978,7 @@
         <v>153</v>
       </c>
       <c r="AS61" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT61" t="s">
         <v>153</v>
@@ -9070,7 +9070,7 @@
         <v>153</v>
       </c>
       <c r="AS62" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT62" t="s">
         <v>153</v>
@@ -9159,7 +9159,7 @@
         <v>153</v>
       </c>
       <c r="AS63" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT63" t="s">
         <v>153</v>
@@ -9266,7 +9266,7 @@
         <v>153</v>
       </c>
       <c r="AS64" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT64" t="s">
         <v>405</v>
@@ -9376,7 +9376,7 @@
         <v>153</v>
       </c>
       <c r="AS65" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT65" t="s">
         <v>412</v>
@@ -9516,10 +9516,10 @@
         <v>200</v>
       </c>
       <c r="BL66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:65">
@@ -9626,10 +9626,10 @@
         <v>200</v>
       </c>
       <c r="BL67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:65">
@@ -9736,10 +9736,10 @@
         <v>200</v>
       </c>
       <c r="BL68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:65">
@@ -9846,10 +9846,10 @@
         <v>200</v>
       </c>
       <c r="BL69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -9905,7 +9905,7 @@
         <v>153</v>
       </c>
       <c r="AS70" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="BK70" t="s">
         <v>153</v>
@@ -9976,7 +9976,7 @@
         <v>154</v>
       </c>
       <c r="AS71" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="BK71" t="s">
         <v>153</v>
@@ -10050,7 +10050,7 @@
         <v>153</v>
       </c>
       <c r="AS72" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT72" t="s">
         <v>153</v>
@@ -10151,7 +10151,7 @@
         <v>153</v>
       </c>
       <c r="AS73" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT73" t="s">
         <v>153</v>
@@ -10931,7 +10931,7 @@
         <v>153</v>
       </c>
       <c r="AS79" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT79" t="s">
         <v>508</v>
@@ -10946,7 +10946,7 @@
         <v>486</v>
       </c>
       <c r="AX79" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AY79" t="s">
         <v>186</v>
@@ -11059,7 +11059,7 @@
         <v>153</v>
       </c>
       <c r="AS80" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT80" t="s">
         <v>438</v>
@@ -11190,7 +11190,7 @@
         <v>153</v>
       </c>
       <c r="AS81" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT81" t="s">
         <v>445</v>
@@ -11205,7 +11205,7 @@
         <v>486</v>
       </c>
       <c r="AX81" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="AY81" t="s">
         <v>186</v>
@@ -11324,7 +11324,7 @@
         <v>153</v>
       </c>
       <c r="AS82" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT82" t="s">
         <v>473</v>
@@ -11461,7 +11461,7 @@
         <v>153</v>
       </c>
       <c r="AS83" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT83" t="s">
         <v>310</v>
@@ -11568,7 +11568,7 @@
         <v>358</v>
       </c>
       <c r="AJ84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK84" t="s">
         <v>200</v>
@@ -11592,7 +11592,7 @@
         <v>153</v>
       </c>
       <c r="AS84" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT84" t="s">
         <v>153</v>
@@ -11625,10 +11625,10 @@
         <v>200</v>
       </c>
       <c r="BL84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM84" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:65">
@@ -11681,7 +11681,7 @@
         <v>358</v>
       </c>
       <c r="AJ85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK85" t="s">
         <v>200</v>
@@ -11705,7 +11705,7 @@
         <v>153</v>
       </c>
       <c r="AS85" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT85" t="s">
         <v>153</v>
@@ -11738,10 +11738,10 @@
         <v>153</v>
       </c>
       <c r="BL85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:65">
@@ -11794,7 +11794,7 @@
         <v>358</v>
       </c>
       <c r="AJ86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK86" t="s">
         <v>200</v>
@@ -11818,7 +11818,7 @@
         <v>153</v>
       </c>
       <c r="AS86" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT86" t="s">
         <v>153</v>
@@ -11851,10 +11851,10 @@
         <v>153</v>
       </c>
       <c r="BL86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:65">
@@ -11925,7 +11925,7 @@
         <v>153</v>
       </c>
       <c r="AS87" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT87" t="s">
         <v>309</v>
@@ -12029,7 +12029,7 @@
         <v>153</v>
       </c>
       <c r="AS88" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT88" t="s">
         <v>550</v>
@@ -12133,7 +12133,7 @@
         <v>153</v>
       </c>
       <c r="AS89" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AT89" t="s">
         <v>445</v>
@@ -12210,7 +12210,7 @@
         <v>153</v>
       </c>
       <c r="AJ90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM90" t="s">
         <v>153</v>
@@ -12222,7 +12222,7 @@
         <v>155</v>
       </c>
       <c r="AS90" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT90" t="s">
         <v>153</v>
@@ -12570,7 +12570,7 @@
         <v>153</v>
       </c>
       <c r="AS93" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT93" t="s">
         <v>153</v>
@@ -12665,7 +12665,7 @@
         <v>153</v>
       </c>
       <c r="AS94" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT94" t="s">
         <v>153</v>
@@ -12760,7 +12760,7 @@
         <v>153</v>
       </c>
       <c r="AS95" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT95" t="s">
         <v>153</v>
@@ -12909,10 +12909,10 @@
         <v>200</v>
       </c>
       <c r="BL96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BM96" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:65">
@@ -13081,7 +13081,7 @@
         <v>155</v>
       </c>
       <c r="AS98" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT98" t="s">
         <v>153</v>
@@ -13118,7 +13118,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BX2 A14:A71 E14:E71 G13:R13 BA13:BX13 AR13:AY13 AP13 AI13:AN13 V13:AG13 G14:R57 U14:BX15 X16:BX44 V45:BX48 W49:BX57 G58:R61 W58:BX61 G62:R62 W62:BX62 G63:R65 W63:BX63 X64:BX65 G66:R69 U66:BX69 G70:BX70 G71:R71 T71:BX71 A85:A98 A72:A83 E72:E98 G72:R73 T72:BX73 G74:BX74 G75:R78 U75:BX75 V76:BX76 W77:BX77 X78:BX78 G79:BX79 G80:R84 T80:BX80 U81:BX81 V82:BX82 V83 X83:BX83 T84:BX84 G85:BX88 G89:R89 T89:BX89 G90:R90 W90:BX90 G91:R95 W91:BX92 X93:BX95 G96:R97 U96 W96 Z96:BX96 U97:BX97 G98:R98 W98:BX98" numberStoredAsText="1"/>
+    <ignoredError sqref="W98:BX98 G98:R98 U97:BX97 Z96:BX96 W96 U96 G96:R97 X93:BX95 W91:BX92 G91:R95 W90:BX90 G90:R90 T89:BX89 G89:R89 G85:BX88 T84:BX84 X83:BX83 V83 V82:BX82 U81:BX81 T80:BX80 G80:R84 G79:BX79 X78:BX78 W77:BX77 V76:BX76 U75:BX75 G75:R78 G74:BX74 T72:BX73 G72:R73 E72:E98 A72:A83 A85:A98 T71:BX71 G71:R71 G70:BX70 U66:BX69 G66:R69 X64:BX65 W63:BX63 G63:R65 W62:BX62 G62:R62 W58:BX61 G58:R61 W49:BX57 V45:BX48 X16:BX44 U14:BX15 G14:R57 V13:AG13 AI13:AN13 AP13 AR13:AY13 BA13:BX13 G13:R13 E14:E71 A14:A71 A1:BX2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/code/excels/units/imba_units.xlsx
+++ b/code/excels/units/imba_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3605,7 +3605,7 @@
     <t>字段</t>
   </si>
   <si>
-    <t>DOTAUnits</t>
+    <t>imba_units</t>
   </si>
   <si>
     <t>Creature</t>
@@ -4664,7 +4664,7 @@
   <sheetPr/>
   <dimension ref="A1:CC292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI109" workbookViewId="0">
+    <sheetView topLeftCell="BI109" workbookViewId="0">
       <selection activeCell="I286" sqref="I286"/>
     </sheetView>
   </sheetViews>
@@ -34396,8 +34396,8 @@
   <sheetPr/>
   <dimension ref="A1:CC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -35383,7 +35383,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:CC4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:CC1 A2 C2:CC2 A3:CC3 A4:B4 D4:CC4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>